--- a/daywork.xlsx
+++ b/daywork.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Environment Setup</t>
   </si>
   <si>
-    <t>2018.2.10</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -58,25 +55,10 @@
     <t>Orange</t>
   </si>
   <si>
-    <t>2018.3.1</t>
-  </si>
-  <si>
-    <t>2018.4.5</t>
-  </si>
-  <si>
     <t>Test Design</t>
   </si>
   <si>
     <t>Test Case Development</t>
-  </si>
-  <si>
-    <t>2018.4.9</t>
-  </si>
-  <si>
-    <t>2018.4.10</t>
-  </si>
-  <si>
-    <t>2018.5.1</t>
   </si>
   <si>
     <t>Marry</t>
@@ -88,28 +70,13 @@
     <t>Test Script Development</t>
   </si>
   <si>
-    <t>2018.5.3</t>
-  </si>
-  <si>
     <t>Test Execution</t>
-  </si>
-  <si>
-    <t>2018.5.5</t>
-  </si>
-  <si>
-    <t>2018.6.17</t>
   </si>
   <si>
     <t>Logging Results</t>
   </si>
   <si>
     <t>Test Result Report</t>
-  </si>
-  <si>
-    <t>2018.7.1</t>
-  </si>
-  <si>
-    <t>2018.8.28</t>
   </si>
   <si>
     <t>Kwon</t>
@@ -280,14 +247,14 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3">
+        <v>43141.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -297,42 +264,42 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3">
+        <v>43141.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
+      <c r="A6" s="3">
+        <v>43141.0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="3">
+        <v>43160.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -341,15 +308,15 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
+      <c r="A8" s="3">
+        <v>43195.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -358,15 +325,15 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
         <v>7.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
+      <c r="A9" s="3">
+        <v>43195.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -375,177 +342,177 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
+      <c r="A10" s="3">
+        <v>43200.0</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
+      <c r="A11" s="3">
+        <v>43200.0</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>10.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
+      <c r="A12" s="3">
+        <v>43221.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
+      <c r="A13" s="3">
+        <v>43223.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4">
         <v>12.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
+      <c r="A14" s="3">
+        <v>43225.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
+      <c r="A15" s="3">
+        <v>43268.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
+      <c r="A16" s="3">
+        <v>43268.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
+      <c r="A17" s="3">
+        <v>43282.0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
+      <c r="A18" s="3">
+        <v>43282.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
+      <c r="A19" s="3">
+        <v>43340.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4">
         <v>3.0</v>
